--- a/import_device_info.xlsx
+++ b/import_device_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86C3CE-6F95-FE46-BDE6-51F6336B1DF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5440" yWindow="460" windowWidth="25560" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>device_type</t>
   </si>
@@ -147,14 +147,6 @@
   </si>
   <si>
     <t>100GBase-SR4 光模块-QSFP28-100G- 多模模块(850nm,0.1km,MPO)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSFP-100G-SR4-NT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100GBase-SR4 光模块-QSFP28-100G- 多模模块(850nm,0.1km,MPO,NT) ,20-60C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,8 +298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,28 +645,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,9 +695,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -729,7 +721,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -755,7 +747,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -781,7 +773,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -807,7 +799,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -833,7 +825,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -859,7 +851,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -885,7 +877,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -911,7 +903,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -937,7 +929,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -960,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -986,7 +978,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1006,13 +998,13 @@
         <v>21</v>
       </c>
       <c r="H13" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I13" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1023,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2">
         <v>100</v>
@@ -1032,24 +1024,24 @@
         <v>21</v>
       </c>
       <c r="H14" s="2">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="I14" s="2">
         <v>1310</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2">
         <v>100</v>
@@ -1058,24 +1050,24 @@
         <v>21</v>
       </c>
       <c r="H15" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="I15" s="2">
         <v>1310</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2">
         <v>100</v>
@@ -1084,18 +1076,18 @@
         <v>21</v>
       </c>
       <c r="H16" s="2">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="I16" s="2">
         <v>1310</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1107,16 +1099,16 @@
         <v>100</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H17" s="2">
-        <v>40000</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1133,16 +1125,16 @@
         <v>100</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1156,19 +1148,19 @@
         <v>50</v>
       </c>
       <c r="F19" s="2">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
         <v>100</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
       </c>
       <c r="I19" s="2">
         <v>850</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1185,16 +1177,13 @@
         <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H20" s="2">
-        <v>100</v>
-      </c>
-      <c r="I20" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1211,13 +1200,16 @@
         <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1223,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -1243,7 +1235,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1260,16 +1252,16 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="I23" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1289,13 +1281,13 @@
         <v>10</v>
       </c>
       <c r="H24" s="2">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="I24" s="2">
         <v>1310</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1315,13 +1307,13 @@
         <v>10</v>
       </c>
       <c r="H25" s="2">
-        <v>80000</v>
+        <v>100</v>
       </c>
       <c r="I25" s="2">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1331,23 +1323,20 @@
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F26" s="2">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H26" s="2">
-        <v>100</v>
-      </c>
-      <c r="I26" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1357,20 +1346,23 @@
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F27" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="I27" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1390,13 +1382,13 @@
         <v>10</v>
       </c>
       <c r="H28" s="2">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="I28" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1407,64 +1399,38 @@
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="H29" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1473,22 +1439,22 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.1,1,10,25,40,100,400"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"850,1310,1550"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"module,linecard,chassis,fabriccard,power,fan,supervisor,monitoring"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"HW,H3C,CISCO,JUNIPER,RUIJIE,UNIVERSAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"FC,LC,MPO,RJ45,SC,AOC,DAC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"5,10,100,300,1000,2000,10000,40000,80000"</formula1>
     </dataValidation>
   </dataValidations>
